--- a/P3GA2/Cronograma Proyecto Nomina Fase II.xlsx
+++ b/P3GA2/Cronograma Proyecto Nomina Fase II.xlsx
@@ -127,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,14 +163,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -309,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -345,9 +337,6 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,22 +362,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -693,7 +682,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -704,8 +693,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -720,24 +709,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="3" spans="2:7" ht="13.9" x14ac:dyDescent="0.25">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="35" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -761,7 +750,7 @@
     </row>
     <row r="5" spans="2:7" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="4"/>
@@ -771,7 +760,7 @@
     </row>
     <row r="6" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="10">
@@ -787,7 +776,7 @@
     </row>
     <row r="7" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="22"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
@@ -795,118 +784,134 @@
     </row>
     <row r="8" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="30"/>
-      <c r="C10" s="21"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="29"/>
+      <c r="C10" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="14">
+        <v>43902</v>
+      </c>
+      <c r="E11" s="14">
+        <v>43903</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="31"/>
-      <c r="C12" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
+    <row r="12" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="14">
+        <v>43902</v>
+      </c>
+      <c r="E12" s="14">
+        <v>43903</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
-      <c r="C13" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="15">
-        <v>43902</v>
-      </c>
-      <c r="E13" s="15">
-        <v>43903</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="31"/>
-      <c r="C14" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="15">
-        <v>43902</v>
-      </c>
-      <c r="E14" s="15">
-        <v>43903</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+    <row r="15" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="30"/>
+      <c r="C15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="31"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="32"/>
-      <c r="C17" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="11"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="31"/>
+      <c r="C17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="10">
+        <v>43963</v>
+      </c>
+      <c r="E17" s="10">
+        <v>43964</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="16"/>
+      <c r="C18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="10">
+        <v>43963</v>
+      </c>
+      <c r="E18" s="10">
+        <v>43964</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
-      <c r="C19" s="20" t="s">
-        <v>17</v>
+      <c r="B19" s="32"/>
+      <c r="C19" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="D19" s="10">
         <v>43963</v>
@@ -915,14 +920,14 @@
         <v>43964</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
-      <c r="C20" s="20" t="s">
-        <v>18</v>
+      <c r="B20" s="37"/>
+      <c r="C20" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="D20" s="10">
         <v>43963</v>
@@ -933,12 +938,12 @@
       <c r="F20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="12"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B21" s="34"/>
-      <c r="C21" s="20" t="s">
-        <v>19</v>
+      <c r="B21" s="33"/>
+      <c r="C21" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="D21" s="10">
         <v>43963</v>
@@ -947,14 +952,14 @@
         <v>43964</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G21" s="12"/>
     </row>
     <row r="22" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
-      <c r="C22" s="20" t="s">
-        <v>20</v>
+      <c r="C22" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="D22" s="10">
         <v>43963</v>
@@ -963,14 +968,14 @@
         <v>43964</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="30"/>
-      <c r="C23" s="20" t="s">
-        <v>21</v>
+      <c r="B23" s="29"/>
+      <c r="C23" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="D23" s="10">
         <v>43963</v>
@@ -984,9 +989,9 @@
       <c r="G23" s="12"/>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
-      <c r="C24" s="20" t="s">
-        <v>22</v>
+      <c r="B24" s="30"/>
+      <c r="C24" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="D24" s="10">
         <v>43963</v>
@@ -995,7 +1000,7 @@
         <v>43964</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="1" t="s">
@@ -1003,9 +1008,9 @@
       </c>
     </row>
     <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
-      <c r="C25" s="20" t="s">
-        <v>23</v>
+      <c r="B25" s="31"/>
+      <c r="C25" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="D25" s="10">
         <v>43963</v>
@@ -1014,7 +1019,7 @@
         <v>43964</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="1" t="s">
@@ -1023,8 +1028,8 @@
     </row>
     <row r="26" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
-      <c r="C26" s="20" t="s">
-        <v>24</v>
+      <c r="C26" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="D26" s="10">
         <v>43963</v>
@@ -1041,38 +1046,28 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B27" s="33"/>
-      <c r="C27" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="10">
-        <v>43963</v>
-      </c>
-      <c r="E27" s="10">
-        <v>43964</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="12"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="16"/>
       <c r="H27" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B28" s="34"/>
-      <c r="C28" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="10">
-        <v>43963</v>
-      </c>
-      <c r="E28" s="10">
-        <v>43964</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="14">
+        <v>43964</v>
+      </c>
+      <c r="E28" s="14">
+        <v>43965</v>
+      </c>
+      <c r="F28" s="11"/>
       <c r="G28" s="12"/>
       <c r="H28" s="1" t="s">
         <v>31</v>
@@ -1080,26 +1075,26 @@
     </row>
     <row r="29" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="C29" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="14">
+        <v>43964</v>
+      </c>
+      <c r="E29" s="14">
+        <v>43965</v>
+      </c>
       <c r="F29" s="11"/>
-      <c r="G29" s="17"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
-      <c r="C30" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="15">
-        <v>43964</v>
-      </c>
-      <c r="E30" s="15">
-        <v>43965</v>
-      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
       <c r="H30" s="1" t="s">
@@ -1108,15 +1103,9 @@
     </row>
     <row r="31" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
-      <c r="C31" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="15">
-        <v>43964</v>
-      </c>
-      <c r="E31" s="15">
-        <v>43965</v>
-      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
       <c r="H31" s="1" t="s">
@@ -1125,9 +1114,9 @@
     </row>
     <row r="32" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="15"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
       <c r="H32" s="1" t="s">
@@ -1136,9 +1125,9 @@
     </row>
     <row r="33" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
       <c r="H33" s="1" t="s">
@@ -1146,28 +1135,18 @@
       </c>
     </row>
     <row r="34" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B34" s="18"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="11"/>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B35" s="9"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
     </row>
     <row r="36" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
+      <c r="B36" s="17"/>
     </row>
     <row r="37" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B37" s="9"/>
@@ -1175,21 +1154,20 @@
     <row r="38" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B38" s="9"/>
     </row>
-    <row r="39" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
+      <c r="F39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="7" t="e">
+        <f>AVERAGE(G5:G34)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="40" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F41" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="7" t="e">
-        <f>AVERAGE(G5:G36)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
+    <row r="41" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
